--- a/Processed Data/Classified images/FRAGSTATS_results/FRAGSTAT_Summary.xlsx
+++ b/Processed Data/Classified images/FRAGSTATS_results/FRAGSTAT_Summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t xml:space="preserve">LID </t>
   </si>
@@ -804,38 +804,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2547,6 +2516,924 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Veg Only'!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> AI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Veg Only'!$K$19:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Veg Only'!$J$19:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>88.602500000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.749200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1AF-4E7E-9B4D-B1C71B7A24EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="494717680"/>
+        <c:axId val="494718008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="494717680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494718008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="494718008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Aggregation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Index</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494717680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Veg Changes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in SCB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Veg Only'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conifer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Veg Only'!$N$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Veg Only'!$N$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>87.211699999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.311199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F58-4648-9ADB-DC079FF68ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Veg Only'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shrub</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Veg Only'!$N$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Veg Only'!$N$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.6989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5255000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F58-4648-9ADB-DC079FF68ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Veg Only'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sparse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Veg Only'!$N$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Veg Only'!$N$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.9565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1939000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0F58-4648-9ADB-DC079FF68ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Veg Only'!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wetland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Veg Only'!$N$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Veg Only'!$N$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.1327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96940000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0F58-4648-9ADB-DC079FF68ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="5"/>
+        <c:overlap val="100"/>
+        <c:axId val="466043992"/>
+        <c:axId val="572500216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="466043992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572500216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572500216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Vegetated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Landscape</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466043992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5684,176 +6571,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Veg Only'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Shrub</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Veg Only'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Veg Only'!$D$2:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.72189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72450000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7EB7-41FD-B77E-397FA1BF57DD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Veg Only'!$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wetland</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Veg Only'!$H$8:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Veg Only'!$D$8:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.21679999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7EB7-41FD-B77E-397FA1BF57DD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Veg Only'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sparse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Veg Only'!$H$4:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Veg Only'!$D$4:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.30099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59689999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7EB7-41FD-B77E-397FA1BF57DD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'Veg Only'!$I$6</c:f>
@@ -6164,6 +6883,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7177,6 +7976,1027 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7329,16 +9149,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7425,14 +9245,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7457,8 +9277,8 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
@@ -7640,6 +9460,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7913,8 +9795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8415,10 +10297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8426,7 +10308,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8454,8 +10336,14 @@
       <c r="I1" t="s">
         <v>24</v>
       </c>
+      <c r="N1">
+        <v>1973</v>
+      </c>
+      <c r="O1">
+        <v>2014</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -8483,8 +10371,17 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <v>87.211699999999993</v>
+      </c>
+      <c r="O2">
+        <v>85.311199999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8512,8 +10409,17 @@
       <c r="I3" t="s">
         <v>29</v>
       </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>6.6989999999999998</v>
+      </c>
+      <c r="O3">
+        <v>6.5255000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -8541,8 +10447,17 @@
       <c r="I4" t="s">
         <v>28</v>
       </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>4.9565999999999999</v>
+      </c>
+      <c r="O4">
+        <v>7.1939000000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -8570,8 +10485,17 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>1.1327</v>
+      </c>
+      <c r="O5">
+        <v>0.96940000000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -8600,7 +10524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -8629,7 +10553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -8658,7 +10582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -8793,8 +10717,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G9">
-    <sortCondition ref="B2:B9"/>
+  <sortState ref="K2:M9">
+    <sortCondition ref="K2:K9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Processed Data/Classified images/FRAGSTATS_results/FRAGSTAT_Summary.xlsx
+++ b/Processed Data/Classified images/FRAGSTATS_results/FRAGSTAT_Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boisrame\Documents\GitHub\FireWater\SEKI_Imagery_Analysis\Processed Data\Classified images\FRAGSTATS_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\SEKI_Imagery_Analysis\Processed Data\Classified images\FRAGSTATS_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9020,16 +9020,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9499,16 +9499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9796,12 +9796,12 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="132.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -10299,8 +10299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
